--- a/data/EntrevistasRealizadas.xlsx
+++ b/data/EntrevistasRealizadas.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Dropbox\Autónomo\EAS\web\generator\join tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61B2F254-0DDD-46F1-8928-2991A0A4B1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BD604E6-7DCA-4F52-A5AA-AA9097DB576B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{35DE4A9A-6D59-42C3-8645-1CFCB5B3C286}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8880" xr2:uid="{3E310AAC-72B3-40B7-B163-4342948C88B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Edad" sheetId="2" r:id="rId1"/>
-    <sheet name="Hábitat" sheetId="3" r:id="rId2"/>
+    <sheet name="Habitat" sheetId="3" r:id="rId2"/>
     <sheet name="EstimadorInterpretación" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -193,6 +193,114 @@
     <t>49,25%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -307,114 +415,6 @@
     <t>48,69%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
     <t>25,84%</t>
   </si>
   <si>
@@ -481,6 +481,216 @@
     <t>* Las casillas con valores enteros representan el número de entrevistas realizadas, es decir, personas que contestaron en cada edición; mientras que las casillas con porcentajes representan la distribución de las entrevistas realizadas en cada edición (% columna), en cada categoría de la variable de segmentación (% fila) o según sexo (% edición).</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
@@ -580,112 +790,115 @@
     <t>48,52%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -733,9 +946,6 @@
     <t>25,34%</t>
   </si>
   <si>
-    <t>25,96%</t>
-  </si>
-  <si>
     <t>21,31%</t>
   </si>
   <si>
@@ -748,9 +958,6 @@
     <t>26,26%</t>
   </si>
   <si>
-    <t>22,43%</t>
-  </si>
-  <si>
     <t>26,52%</t>
   </si>
   <si>
@@ -770,213 +977,6 @@
   </si>
   <si>
     <t>49,28%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1107,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{874CB367-9B2E-4D33-975F-98185F6DC582}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EE82D69-DED8-4319-98A6-7E6A0C10A23B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1441,7 +1441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C2E8A4-33C4-40C8-9920-A6498E445D08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F899F5A6-A36F-4A19-B453-BEC117A3520A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1765,49 +1765,49 @@
         <v>9</v>
       </c>
       <c r="C8" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D8" s="7">
-        <v>401</v>
+        <v>335</v>
       </c>
       <c r="E8" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="F8" s="7">
-        <v>479</v>
+        <v>271</v>
       </c>
       <c r="G8" s="7">
-        <v>1683</v>
+        <v>1299</v>
       </c>
       <c r="H8" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I8" s="7">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="J8" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="K8" s="7">
-        <v>463</v>
+        <v>281</v>
       </c>
       <c r="L8" s="7">
-        <v>1597</v>
+        <v>1266</v>
       </c>
       <c r="M8" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N8" s="7">
-        <v>766</v>
+        <v>656</v>
       </c>
       <c r="O8" s="7">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="P8" s="7">
-        <v>942</v>
+        <v>552</v>
       </c>
       <c r="Q8" s="7">
-        <v>3280</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,31 +1921,31 @@
         <v>79</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>31</v>
@@ -1965,55 +1965,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D12" s="7">
-        <v>335</v>
+        <v>401</v>
       </c>
       <c r="E12" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="F12" s="7">
-        <v>271</v>
+        <v>479</v>
       </c>
       <c r="G12" s="7">
-        <v>1299</v>
+        <v>1683</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="J12" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="K12" s="7">
-        <v>281</v>
+        <v>463</v>
       </c>
       <c r="L12" s="7">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N12" s="7">
-        <v>656</v>
+        <v>766</v>
       </c>
       <c r="O12" s="7">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="P12" s="7">
-        <v>552</v>
+        <v>942</v>
       </c>
       <c r="Q12" s="7">
-        <v>2565</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2022,49 +2022,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="I13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="N13" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="O13" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,46 +2073,46 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="G14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="N14" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="7" t="s">
+      <c r="O14" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>31</v>
@@ -2124,25 +2124,25 @@
         <v>40</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>122</v>
@@ -2357,7 +2357,7 @@
         <v>145</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>31</v>
@@ -2469,7 +2469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD51B793-5C84-4465-A9C5-08AD375D3D22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D057E4-C262-4ADC-9431-4B16CD548047}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2587,49 +2587,49 @@
         <v>9</v>
       </c>
       <c r="C4" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>324</v>
+        <v>28</v>
       </c>
       <c r="E4" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="F4" s="7">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="G4" s="7">
-        <v>1321</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>319</v>
+        <v>26</v>
       </c>
       <c r="J4" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="K4" s="7">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="L4" s="7">
-        <v>1245</v>
+        <v>107</v>
       </c>
       <c r="M4" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N4" s="7">
-        <v>643</v>
+        <v>54</v>
       </c>
       <c r="O4" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="P4" s="7">
-        <v>623</v>
+        <v>47</v>
       </c>
       <c r="Q4" s="7">
-        <v>2566</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,22 +2665,22 @@
         <v>156</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,10 +2689,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>163</v>
@@ -2722,13 +2722,13 @@
         <v>169</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>31</v>
@@ -2740,10 +2740,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>173</v>
@@ -2758,16 +2758,16 @@
         <v>176</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>31</v>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>9</v>
@@ -2844,49 +2844,49 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,28 +2895,28 @@
         <v>26</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>129</v>
@@ -2925,16 +2925,16 @@
         <v>31</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>31</v>
@@ -2946,34 +2946,34 @@
         <v>40</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>31</v>
@@ -2993,55 +2993,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="E12" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="F12" s="7">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="G12" s="7">
-        <v>1117</v>
+        <v>1321</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="J12" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="K12" s="7">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="L12" s="7">
-        <v>1070</v>
+        <v>1245</v>
       </c>
       <c r="M12" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N12" s="7">
-        <v>558</v>
+        <v>643</v>
       </c>
       <c r="O12" s="7">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="P12" s="7">
-        <v>478</v>
+        <v>623</v>
       </c>
       <c r="Q12" s="7">
-        <v>2187</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,49 +3050,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>226</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>225</v>
+        <v>62</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,46 +3101,46 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="N14" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="O14" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>31</v>
@@ -3152,34 +3152,34 @@
         <v>40</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>241</v>
+        <v>48</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>41</v>
+        <v>245</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>243</v>
+        <v>43</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>176</v>
+        <v>247</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>118</v>
+        <v>248</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>46</v>
+        <v>249</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>31</v>
@@ -3199,55 +3199,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D16" s="7">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c r="E16" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="G16" s="7">
-        <v>110</v>
+        <v>961</v>
       </c>
       <c r="H16" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I16" s="7">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="J16" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="K16" s="7">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="L16" s="7">
-        <v>107</v>
+        <v>957</v>
       </c>
       <c r="M16" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N16" s="7">
-        <v>54</v>
+        <v>498</v>
       </c>
       <c r="O16" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="P16" s="7">
-        <v>47</v>
+        <v>452</v>
       </c>
       <c r="Q16" s="7">
-        <v>217</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,49 +3256,49 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>258</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,46 +3307,46 @@
         <v>26</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>134</v>
+        <v>266</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>75</v>
+        <v>274</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>75</v>
+        <v>275</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>31</v>
@@ -3358,34 +3358,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>31</v>
@@ -3405,55 +3405,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D20" s="7">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="E20" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="F20" s="7">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="G20" s="7">
-        <v>961</v>
+        <v>1117</v>
       </c>
       <c r="H20" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I20" s="7">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="J20" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="K20" s="7">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="L20" s="7">
-        <v>957</v>
+        <v>1070</v>
       </c>
       <c r="M20" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N20" s="7">
-        <v>498</v>
+        <v>558</v>
       </c>
       <c r="O20" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="P20" s="7">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="Q20" s="7">
-        <v>1918</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,49 +3462,49 @@
         <v>10</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>286</v>
+        <v>134</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>128</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,46 +3513,46 @@
         <v>26</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>299</v>
+        <v>167</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>231</v>
+        <v>133</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>31</v>
@@ -3564,34 +3564,34 @@
         <v>40</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>305</v>
+        <v>242</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>306</v>
+        <v>84</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>307</v>
+        <v>41</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>310</v>
+        <v>246</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>311</v>
+        <v>80</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>312</v>
+        <v>46</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>31</v>
@@ -3797,7 +3797,7 @@
         <v>145</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>31</v>
@@ -3911,7 +3911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF70AE2B-B22E-4D4A-B15F-1CCA32C5FEEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D085F77-DF7F-49E5-BCE1-E49E9545688D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/data/EntrevistasRealizadas.xlsx
+++ b/data/EntrevistasRealizadas.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Dropbox\Autónomo\EAS\web\generator\join tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BD604E6-7DCA-4F52-A5AA-AA9097DB576B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EFA9048-E6B5-4C6A-AA4F-6011E9823A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8880" xr2:uid="{3E310AAC-72B3-40B7-B163-4342948C88B9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D0C30D0B-6B30-422E-8870-27093D26CEC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Edad" sheetId="2" r:id="rId1"/>
-    <sheet name="Habitat" sheetId="3" r:id="rId2"/>
-    <sheet name="EstimadorInterpretación" sheetId="4" r:id="rId3"/>
+    <sheet name="Estudios" sheetId="3" r:id="rId2"/>
+    <sheet name="Habitat" sheetId="4" r:id="rId3"/>
+    <sheet name="EstimadorInterpretación" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="455">
   <si>
     <t>Tamaños muestrales en cada edición (entrevistas realizadas)*</t>
   </si>
@@ -64,7 +65,7 @@
     <t>2023</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
   </si>
   <si>
     <t>Entrevistas realizadas</t>
@@ -73,910 +74,1336 @@
     <t>% (columna)</t>
   </si>
   <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>% (fila)</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>% (edición)</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>* Las casillas con valores enteros representan el número de entrevistas realizadas, es decir, personas que contestaron en cada edición; mientras que las casillas con porcentajes representan la distribución de las entrevistas realizadas en cada edición (% columna), en cada categoría de la variable de segmentación (% fila) o según sexo (% edición).</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>Primarios</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
     <t>30,76%</t>
   </si>
   <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>% (fila)</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>% (edición)</t>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
   </si>
   <si>
     <t>51,07%</t>
   </si>
   <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
   </si>
   <si>
     <t>48,93%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>* Las casillas con valores enteros representan el número de entrevistas realizadas, es decir, personas que contestaron en cada edición; mientras que las casillas con porcentajes representan la distribución de las entrevistas realizadas en cada edición (% columna), en cada categoría de la variable de segmentación (% fila) o según sexo (% edición).</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1414,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1097,17 +1524,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>120015</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>777111</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EE82D69-DED8-4319-98A6-7E6A0C10A23B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2045DC85-EB59-4F06-9086-1DF707630AF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1133,7 +1560,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5667375" cy="8020050"/>
+          <a:ext cx="7116951" cy="10058400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1156,39 +1583,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1240,7 +1667,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1351,13 +1778,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1366,6 +1786,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1430,19 +1857,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F899F5A6-A36F-4A19-B453-BEC117A3520A}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D5BF26-DC51-45B2-A9A9-212779C2821F}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1559,49 +2006,49 @@
         <v>9</v>
       </c>
       <c r="C4" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D4" s="7">
-        <v>338</v>
+        <v>207</v>
       </c>
       <c r="E4" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="F4" s="7">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="G4" s="7">
-        <v>1220</v>
+        <v>692</v>
       </c>
       <c r="H4" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I4" s="7">
-        <v>339</v>
+        <v>219</v>
       </c>
       <c r="J4" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="K4" s="7">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="L4" s="7">
-        <v>1184</v>
+        <v>701</v>
       </c>
       <c r="M4" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N4" s="7">
-        <v>677</v>
+        <v>426</v>
       </c>
       <c r="O4" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="P4" s="7">
-        <v>426</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="7">
-        <v>2404</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1670,144 +2117,144 @@
         <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="7" t="s">
+      <c r="N6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="O6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="M7" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D8" s="7">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="E8" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="F8" s="7">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G8" s="7">
-        <v>1299</v>
+        <v>1412</v>
       </c>
       <c r="H8" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I8" s="7">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="J8" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="K8" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7">
-        <v>1266</v>
+        <v>1309</v>
       </c>
       <c r="M8" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N8" s="7">
-        <v>656</v>
+        <v>714</v>
       </c>
       <c r="O8" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="P8" s="7">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="Q8" s="7">
-        <v>2565</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1816,49 +2263,49 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="N9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="O9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,61 +2314,61 @@
         <v>26</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="7" t="s">
+      <c r="N10" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="O10" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>80</v>
@@ -1936,84 +2383,84 @@
         <v>83</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>401</v>
+        <v>228</v>
       </c>
       <c r="E12" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="F12" s="7">
-        <v>479</v>
+        <v>243</v>
       </c>
       <c r="G12" s="7">
-        <v>1683</v>
+        <v>946</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>365</v>
+        <v>223</v>
       </c>
       <c r="J12" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="K12" s="7">
-        <v>463</v>
+        <v>234</v>
       </c>
       <c r="L12" s="7">
-        <v>1597</v>
+        <v>920</v>
       </c>
       <c r="M12" s="7">
-        <v>816</v>
+        <v>403</v>
       </c>
       <c r="N12" s="7">
-        <v>766</v>
+        <v>451</v>
       </c>
       <c r="O12" s="7">
-        <v>756</v>
+        <v>535</v>
       </c>
       <c r="P12" s="7">
-        <v>942</v>
+        <v>477</v>
       </c>
       <c r="Q12" s="7">
-        <v>3280</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2022,13 +2469,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>91</v>
@@ -2085,7 +2532,7 @@
         <v>106</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>107</v>
@@ -2100,7 +2547,7 @@
         <v>110</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>111</v>
@@ -2115,13 +2562,13 @@
         <v>114</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>115</v>
@@ -2154,72 +2601,72 @@
         <v>124</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="7">
-        <v>1086</v>
+        <v>310</v>
       </c>
       <c r="D16" s="7">
-        <v>1074</v>
+        <v>265</v>
       </c>
       <c r="E16" s="7">
-        <v>1065</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7">
-        <v>977</v>
+        <v>342</v>
       </c>
       <c r="G16" s="7">
-        <v>4202</v>
+        <v>1152</v>
       </c>
       <c r="H16" s="7">
-        <v>1018</v>
+        <v>286</v>
       </c>
       <c r="I16" s="7">
-        <v>1025</v>
+        <v>243</v>
       </c>
       <c r="J16" s="7">
-        <v>1061</v>
+        <v>246</v>
       </c>
       <c r="K16" s="7">
-        <v>943</v>
+        <v>342</v>
       </c>
       <c r="L16" s="7">
-        <v>4047</v>
+        <v>1117</v>
       </c>
       <c r="M16" s="7">
-        <v>2104</v>
+        <v>596</v>
       </c>
       <c r="N16" s="7">
-        <v>2099</v>
+        <v>508</v>
       </c>
       <c r="O16" s="7">
-        <v>2126</v>
+        <v>481</v>
       </c>
       <c r="P16" s="7">
-        <v>1920</v>
+        <v>684</v>
       </c>
       <c r="Q16" s="7">
-        <v>8249</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,49 +2675,49 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,184 +2726,396 @@
         <v>26</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1086</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1074</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1065</v>
+      </c>
+      <c r="F20" s="7">
+        <v>977</v>
+      </c>
+      <c r="G20" s="7">
+        <v>4202</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1018</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1025</v>
+      </c>
+      <c r="J20" s="7">
+        <v>1061</v>
+      </c>
+      <c r="K20" s="7">
+        <v>943</v>
+      </c>
+      <c r="L20" s="7">
+        <v>4047</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2104</v>
+      </c>
+      <c r="N20" s="7">
+        <v>2099</v>
+      </c>
+      <c r="O20" s="7">
+        <v>2126</v>
+      </c>
+      <c r="P20" s="7">
+        <v>1920</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>8249</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="A24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:M24"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A25:M29"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2469,8 +3128,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D057E4-C262-4ADC-9431-4B16CD548047}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA2EBBA-13B3-4668-97DD-16B2BE3A7D02}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2581,55 +3240,55 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E4" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F4" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G4" s="7">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K4" s="7">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="L4" s="7">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="M4" s="7">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="O4" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="P4" s="7">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="7">
-        <v>217</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,49 +3297,49 @@
         <v>10</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,153 +3348,153 @@
         <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>171</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>30</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="7">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="D8" s="7">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="E8" s="7">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="F8" s="7">
+        <v>83</v>
+      </c>
+      <c r="G8" s="7">
+        <v>433</v>
+      </c>
+      <c r="H8" s="7">
+        <v>136</v>
+      </c>
+      <c r="I8" s="7">
+        <v>134</v>
+      </c>
+      <c r="J8" s="7">
+        <v>89</v>
+      </c>
+      <c r="K8" s="7">
+        <v>69</v>
+      </c>
+      <c r="L8" s="7">
+        <v>428</v>
+      </c>
+      <c r="M8" s="7">
+        <v>266</v>
+      </c>
+      <c r="N8" s="7">
+        <v>255</v>
+      </c>
+      <c r="O8" s="7">
+        <v>188</v>
+      </c>
+      <c r="P8" s="7">
         <v>152</v>
       </c>
-      <c r="G8" s="7">
-        <v>693</v>
-      </c>
-      <c r="H8" s="7">
-        <v>174</v>
-      </c>
-      <c r="I8" s="7">
-        <v>163</v>
-      </c>
-      <c r="J8" s="7">
-        <v>163</v>
-      </c>
-      <c r="K8" s="7">
-        <v>168</v>
-      </c>
-      <c r="L8" s="7">
-        <v>668</v>
-      </c>
-      <c r="M8" s="7">
-        <v>367</v>
-      </c>
-      <c r="N8" s="7">
-        <v>346</v>
-      </c>
-      <c r="O8" s="7">
-        <v>328</v>
-      </c>
-      <c r="P8" s="7">
-        <v>320</v>
-      </c>
       <c r="Q8" s="7">
-        <v>1361</v>
+        <v>861</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,49 +3503,49 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,153 +3554,153 @@
         <v>26</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>214</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="7">
-        <v>322</v>
+        <v>719</v>
       </c>
       <c r="D12" s="7">
-        <v>324</v>
+        <v>708</v>
       </c>
       <c r="E12" s="7">
-        <v>332</v>
+        <v>695</v>
       </c>
       <c r="F12" s="7">
-        <v>343</v>
+        <v>656</v>
       </c>
       <c r="G12" s="7">
-        <v>1321</v>
+        <v>2778</v>
       </c>
       <c r="H12" s="7">
-        <v>312</v>
+        <v>628</v>
       </c>
       <c r="I12" s="7">
-        <v>319</v>
+        <v>655</v>
       </c>
       <c r="J12" s="7">
-        <v>334</v>
+        <v>714</v>
       </c>
       <c r="K12" s="7">
-        <v>280</v>
+        <v>643</v>
       </c>
       <c r="L12" s="7">
-        <v>1245</v>
+        <v>2640</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>1347</v>
       </c>
       <c r="N12" s="7">
-        <v>643</v>
+        <v>1363</v>
       </c>
       <c r="O12" s="7">
-        <v>666</v>
+        <v>1409</v>
       </c>
       <c r="P12" s="7">
-        <v>623</v>
+        <v>1299</v>
       </c>
       <c r="Q12" s="7">
-        <v>2566</v>
+        <v>5418</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,49 +3709,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>62</v>
+        <v>240</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,153 +3760,153 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>236</v>
+        <v>96</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>237</v>
+        <v>66</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>235</v>
+        <v>100</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>48</v>
+        <v>255</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>43</v>
+        <v>260</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="7">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D16" s="7">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E16" s="7">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="F16" s="7">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7">
-        <v>961</v>
+        <v>989</v>
       </c>
       <c r="H16" s="7">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="I16" s="7">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="J16" s="7">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K16" s="7">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L16" s="7">
-        <v>957</v>
+        <v>978</v>
       </c>
       <c r="M16" s="7">
-        <v>461</v>
+        <v>490</v>
       </c>
       <c r="N16" s="7">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="O16" s="7">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="P16" s="7">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="Q16" s="7">
-        <v>1918</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,49 +3915,49 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>253</v>
+        <v>168</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>260</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>128</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,153 +3966,153 @@
         <v>26</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>266</v>
+        <v>127</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>269</v>
+        <v>71</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>287</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="7">
-        <v>306</v>
+        <v>1086</v>
       </c>
       <c r="D20" s="7">
-        <v>283</v>
+        <v>1074</v>
       </c>
       <c r="E20" s="7">
-        <v>290</v>
+        <v>1065</v>
       </c>
       <c r="F20" s="7">
-        <v>238</v>
+        <v>977</v>
       </c>
       <c r="G20" s="7">
-        <v>1117</v>
+        <v>4202</v>
       </c>
       <c r="H20" s="7">
-        <v>274</v>
+        <v>1018</v>
       </c>
       <c r="I20" s="7">
-        <v>275</v>
+        <v>1025</v>
       </c>
       <c r="J20" s="7">
-        <v>281</v>
+        <v>1061</v>
       </c>
       <c r="K20" s="7">
-        <v>240</v>
+        <v>943</v>
       </c>
       <c r="L20" s="7">
-        <v>1070</v>
+        <v>4047</v>
       </c>
       <c r="M20" s="7">
-        <v>580</v>
+        <v>2104</v>
       </c>
       <c r="N20" s="7">
-        <v>558</v>
+        <v>2099</v>
       </c>
       <c r="O20" s="7">
-        <v>571</v>
+        <v>2126</v>
       </c>
       <c r="P20" s="7">
-        <v>478</v>
+        <v>1920</v>
       </c>
       <c r="Q20" s="7">
-        <v>2187</v>
+        <v>8249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,49 +4121,49 @@
         <v>10</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>288</v>
+        <v>30</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>289</v>
+        <v>30</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>290</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>291</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>292</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>293</v>
+        <v>30</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>294</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>295</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>296</v>
+        <v>30</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>292</v>
+        <v>30</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>297</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>298</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>299</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,324 +4172,168 @@
         <v>26</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>301</v>
+        <v>114</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>274</v>
+        <v>161</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>302</v>
+        <v>162</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>304</v>
+        <v>164</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>305</v>
+        <v>165</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>306</v>
-      </c>
       <c r="N22" s="7" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>307</v>
+        <v>169</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>308</v>
+        <v>170</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>309</v>
+        <v>171</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>310</v>
+        <v>172</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>242</v>
+        <v>173</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>312</v>
+        <v>176</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>246</v>
+        <v>177</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1074</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1065</v>
-      </c>
-      <c r="F24" s="7">
-        <v>977</v>
-      </c>
-      <c r="G24" s="7">
-        <v>4202</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1025</v>
-      </c>
-      <c r="J24" s="7">
-        <v>1061</v>
-      </c>
-      <c r="K24" s="7">
-        <v>943</v>
-      </c>
-      <c r="L24" s="7">
-        <v>4047</v>
-      </c>
-      <c r="M24" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N24" s="7">
-        <v>2099</v>
-      </c>
-      <c r="O24" s="7">
-        <v>2126</v>
-      </c>
-      <c r="P24" s="7">
-        <v>1920</v>
-      </c>
-      <c r="Q24" s="7">
-        <v>8249</v>
+      <c r="A24" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="A25" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
@@ -3847,6 +4350,1392 @@
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
     </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A25:M29"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9761EF-FF1F-4AF4-BE8C-7FB5CABA8BD3}">
+  <dimension ref="A1:Q33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7">
+        <v>33</v>
+      </c>
+      <c r="D4" s="7">
+        <v>28</v>
+      </c>
+      <c r="E4" s="7">
+        <v>30</v>
+      </c>
+      <c r="F4" s="7">
+        <v>19</v>
+      </c>
+      <c r="G4" s="7">
+        <v>110</v>
+      </c>
+      <c r="H4" s="7">
+        <v>29</v>
+      </c>
+      <c r="I4" s="7">
+        <v>26</v>
+      </c>
+      <c r="J4" s="7">
+        <v>24</v>
+      </c>
+      <c r="K4" s="7">
+        <v>28</v>
+      </c>
+      <c r="L4" s="7">
+        <v>107</v>
+      </c>
+      <c r="M4" s="7">
+        <v>62</v>
+      </c>
+      <c r="N4" s="7">
+        <v>54</v>
+      </c>
+      <c r="O4" s="7">
+        <v>54</v>
+      </c>
+      <c r="P4" s="7">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7">
+        <v>193</v>
+      </c>
+      <c r="D8" s="7">
+        <v>183</v>
+      </c>
+      <c r="E8" s="7">
+        <v>165</v>
+      </c>
+      <c r="F8" s="7">
+        <v>152</v>
+      </c>
+      <c r="G8" s="7">
+        <v>693</v>
+      </c>
+      <c r="H8" s="7">
+        <v>174</v>
+      </c>
+      <c r="I8" s="7">
+        <v>163</v>
+      </c>
+      <c r="J8" s="7">
+        <v>163</v>
+      </c>
+      <c r="K8" s="7">
+        <v>168</v>
+      </c>
+      <c r="L8" s="7">
+        <v>668</v>
+      </c>
+      <c r="M8" s="7">
+        <v>367</v>
+      </c>
+      <c r="N8" s="7">
+        <v>346</v>
+      </c>
+      <c r="O8" s="7">
+        <v>328</v>
+      </c>
+      <c r="P8" s="7">
+        <v>320</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7">
+        <v>322</v>
+      </c>
+      <c r="D12" s="7">
+        <v>324</v>
+      </c>
+      <c r="E12" s="7">
+        <v>332</v>
+      </c>
+      <c r="F12" s="7">
+        <v>343</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1321</v>
+      </c>
+      <c r="H12" s="7">
+        <v>312</v>
+      </c>
+      <c r="I12" s="7">
+        <v>319</v>
+      </c>
+      <c r="J12" s="7">
+        <v>334</v>
+      </c>
+      <c r="K12" s="7">
+        <v>280</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1245</v>
+      </c>
+      <c r="M12" s="7">
+        <v>634</v>
+      </c>
+      <c r="N12" s="7">
+        <v>643</v>
+      </c>
+      <c r="O12" s="7">
+        <v>666</v>
+      </c>
+      <c r="P12" s="7">
+        <v>623</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="7">
+        <v>232</v>
+      </c>
+      <c r="D16" s="7">
+        <v>256</v>
+      </c>
+      <c r="E16" s="7">
+        <v>248</v>
+      </c>
+      <c r="F16" s="7">
+        <v>225</v>
+      </c>
+      <c r="G16" s="7">
+        <v>961</v>
+      </c>
+      <c r="H16" s="7">
+        <v>229</v>
+      </c>
+      <c r="I16" s="7">
+        <v>242</v>
+      </c>
+      <c r="J16" s="7">
+        <v>259</v>
+      </c>
+      <c r="K16" s="7">
+        <v>227</v>
+      </c>
+      <c r="L16" s="7">
+        <v>957</v>
+      </c>
+      <c r="M16" s="7">
+        <v>461</v>
+      </c>
+      <c r="N16" s="7">
+        <v>498</v>
+      </c>
+      <c r="O16" s="7">
+        <v>507</v>
+      </c>
+      <c r="P16" s="7">
+        <v>452</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="7">
+        <v>306</v>
+      </c>
+      <c r="D20" s="7">
+        <v>283</v>
+      </c>
+      <c r="E20" s="7">
+        <v>290</v>
+      </c>
+      <c r="F20" s="7">
+        <v>238</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1117</v>
+      </c>
+      <c r="H20" s="7">
+        <v>274</v>
+      </c>
+      <c r="I20" s="7">
+        <v>275</v>
+      </c>
+      <c r="J20" s="7">
+        <v>281</v>
+      </c>
+      <c r="K20" s="7">
+        <v>240</v>
+      </c>
+      <c r="L20" s="7">
+        <v>1070</v>
+      </c>
+      <c r="M20" s="7">
+        <v>580</v>
+      </c>
+      <c r="N20" s="7">
+        <v>558</v>
+      </c>
+      <c r="O20" s="7">
+        <v>571</v>
+      </c>
+      <c r="P20" s="7">
+        <v>478</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1086</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1074</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1065</v>
+      </c>
+      <c r="F24" s="7">
+        <v>977</v>
+      </c>
+      <c r="G24" s="7">
+        <v>4202</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1018</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1025</v>
+      </c>
+      <c r="J24" s="7">
+        <v>1061</v>
+      </c>
+      <c r="K24" s="7">
+        <v>943</v>
+      </c>
+      <c r="L24" s="7">
+        <v>4047</v>
+      </c>
+      <c r="M24" s="7">
+        <v>2104</v>
+      </c>
+      <c r="N24" s="7">
+        <v>2099</v>
+      </c>
+      <c r="O24" s="7">
+        <v>2126</v>
+      </c>
+      <c r="P24" s="7">
+        <v>1920</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>8249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+    </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
@@ -3892,13 +5781,28 @@
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
     </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:M32"/>
+    <mergeCell ref="A29:M33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3910,8 +5814,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D085F77-DF7F-49E5-BCE1-E49E9545688D}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B3EAFD-0D56-429E-BB4A-0E90BC75A3C4}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
